--- a/biology/Botanique/Esplanade_Habib-Bourguiba/Esplanade_Habib-Bourguiba.xlsx
+++ b/biology/Botanique/Esplanade_Habib-Bourguiba/Esplanade_Habib-Bourguiba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'esplanade Habib-Bourguiba est une voie située dans le quartier du Gros-Caillou du 7e arrondissement de Paris.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Longue de 360 mètres, l'esplanade Habib-Bourguiba commence au pont de l'Alma et finit au pont des Invalides.
 Elle est desservie par la ligne 9 à la station Alma - Marceau.
@@ -545,7 +559,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La voie porte le nom du premier président de la République tunisienne de 1957 à 1987 Habib Bourguiba (1903-2000), qui a été auparavant le principal artisan de l'indépendance de la Tunisie. 
 </t>
@@ -576,7 +592,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La voie est créée sur la partie arborée du quai d'Orsay sous sa dénomination actuelle par un arrêté municipal du 20 janvier 2004.
 </t>
@@ -607,7 +625,9 @@
           <t>Bâtiments remarquables et lieux de mémoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'esplanade longe la Seine, au nord. Le port du Gros-Caillou et la promenade Gisèle-Halimi se trouvent sur les berges, en contrebas.
 À ce niveau du quai d'Orsay, au sud, se trouve, l'église américaine de Paris.
